--- a/240909 Autosampler demo.xlsx
+++ b/240909 Autosampler demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5283875F-9A11-46AD-97F5-0C36F48EB62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906C441-A34B-48CB-9E6F-84C256496419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="5505" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Time point (min)</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>4rd vial</t>
+  </si>
+  <si>
+    <t>Autosampler</t>
   </si>
 </sst>
 </file>
@@ -135,10 +138,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,16 +429,17 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="1" customWidth="1"/>
-    <col min="9" max="18" width="9.140625" style="1"/>
+    <col min="8" max="8" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
+    <col min="10" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -460,10 +467,13 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -485,8 +495,11 @@
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <f>A2+$S$6</f>
         <v>0.21968333333333331</v>
@@ -494,11 +507,11 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <f>A3+$S$7</f>
         <v>0.28634999999999999</v>
@@ -506,8 +519,11 @@
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <f>A4+$S$6</f>
         <v>0.50603333333333333</v>
@@ -515,7 +531,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -525,13 +541,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <f t="shared" ref="A6:A12" si="0">A5+$S$7</f>
+        <f t="shared" ref="A6" si="0">A5+$S$7</f>
         <v>0.57269999999999999</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>9</v>
@@ -544,15 +563,15 @@
         <v>0.21968333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <f t="shared" ref="A7:A12" si="1">A6+$S$6</f>
+        <f t="shared" ref="A7" si="1">A6+$S$6</f>
         <v>0.79238333333333333</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -566,34 +585,40 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <f t="shared" ref="A8:A12" si="2">A7+$S$7</f>
+        <f t="shared" ref="A8" si="2">A7+$S$7</f>
         <v>0.85904999999999998</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H8" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <f t="shared" ref="A9:A12" si="3">A8+$S$6</f>
+        <f t="shared" ref="A9" si="3">A8+$S$6</f>
         <v>1.0787333333333333</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <f t="shared" ref="A10:A12" si="4">A9+$S$7</f>
+        <f t="shared" ref="A10" si="4">A9+$S$7</f>
         <v>1.1454</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/240909 Autosampler demo.xlsx
+++ b/240909 Autosampler demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R9000P\EChem_Auto_Potential_Optimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3906C441-A34B-48CB-9E6F-84C256496419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03C20D6-741B-4939-8579-8057AC6D7C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8220" yWindow="5505" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Time point (min)</t>
   </si>
@@ -95,7 +95,10 @@
     <t>4rd vial</t>
   </si>
   <si>
-    <t>Autosampler</t>
+    <t>Autosampler_slot</t>
+  </si>
+  <si>
+    <t>Autosampler_position</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
   <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -437,9 +440,11 @@
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="1" customWidth="1"/>
-    <col min="10" max="18" width="9.140625" style="1"/>
+    <col min="8" max="8" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="13" max="18" width="9.140625" style="1"/>
     <col min="19" max="19" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -470,6 +475,9 @@
         <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -507,7 +515,7 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -531,7 +539,7 @@
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q5" s="1" t="s">
@@ -571,7 +579,7 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -605,7 +613,7 @@
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -623,5 +631,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>